--- a/REGIONE_CAMPANIA/integrity:S1#VICAMPANIA.xlsx
+++ b/REGIONE_CAMPANIA/integrity:S1#VICAMPANIA.xlsx
@@ -41,13 +41,13 @@
     <t>NGNVCN92S19L259C^^^&amp;2.16.840.1.113883.2.9.4.3.2&amp;ISO</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.a6824425c1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.4d02802ff5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.110.4.4^UAT_GTW_ID1721293636822</t>
+    <t>2.16.840.1.113883.2.9.2.110.4.4^UAT_GTW_ID1721298575810</t>
   </si>
   <si>
-    <t>18-07-2024:11:07:22</t>
+    <t>18-07-2024:12:29:39</t>
   </si>
 </sst>
 </file>

--- a/REGIONE_CAMPANIA/integrity:S1#VICAMPANIA.xlsx
+++ b/REGIONE_CAMPANIA/integrity:S1#VICAMPANIA.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -32,13 +32,34 @@
     <t>DATAEVENTO</t>
   </si>
   <si>
+    <t>Aggiornamento_0</t>
+  </si>
+  <si>
+    <t>REGIONE_CAMPANIA</t>
+  </si>
+  <si>
+    <t>NGNVCN92S19L259C^^^&amp;2.16.840.1.113883.2.9.4.3.2&amp;ISO</t>
+  </si>
+  <si>
+    <t>192989b8687539fd480210884fd676280d9149da24c19b00abe9298b11315bbb.d753ab6f72^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4^UAT_GTW_ID1721298694310</t>
+  </si>
+  <si>
+    <t>18-07-2024:12:31:41</t>
+  </si>
+  <si>
+    <t>Creazione_1</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.80a82583af^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>18-07-2024:12:31:35</t>
+  </si>
+  <si>
     <t>Creazione_0</t>
-  </si>
-  <si>
-    <t>REGIONE_CAMPANIA</t>
-  </si>
-  <si>
-    <t>NGNVCN92S19L259C^^^&amp;2.16.840.1.113883.2.9.4.3.2&amp;ISO</t>
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.4d02802ff5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
@@ -92,7 +113,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -138,6 +159,46 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/REGIONE_CAMPANIA/integrity:S1#VICAMPANIA.xlsx
+++ b/REGIONE_CAMPANIA/integrity:S1#VICAMPANIA.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
@@ -41,34 +41,22 @@
     <t>NGNVCN92S19L259C^^^&amp;2.16.840.1.113883.2.9.4.3.2&amp;ISO</t>
   </si>
   <si>
-    <t>192989b8687539fd480210884fd676280d9149da24c19b00abe9298b11315bbb.d753ab6f72^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>765080b208dfddbfff8fc6512f911b0817499f80292a6751c453920224643978.812baa6b68^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.110.4.4^UAT_GTW_ID1721298694310</t>
+    <t>2.16.840.1.113883.2.9.2.110.4.4^UAT_GTW_ID1721299538721</t>
   </si>
   <si>
-    <t>18-07-2024:12:31:41</t>
-  </si>
-  <si>
-    <t>Creazione_1</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.80a82583af^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>18-07-2024:12:31:35</t>
+    <t>18-07-2024:12:46:35</t>
   </si>
   <si>
     <t>Creazione_0</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.4d02802ff5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.05e2ca76c0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.110.4.4^UAT_GTW_ID1721298575810</t>
-  </si>
-  <si>
-    <t>18-07-2024:12:29:39</t>
+    <t>18-07-2024:12:45:40</t>
   </si>
 </sst>
 </file>
@@ -113,7 +101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -179,26 +167,6 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>18</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
